--- a/Успеваемость_С-ИП-21-2_БД.xlsx
+++ b/Успеваемость_С-ИП-21-2_БД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE96744E-F3F9-8448-B143-A1AB28A7A379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8AC6C4-FB4D-224A-B76A-F1C6188959EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -161,6 +161,18 @@
   <si>
     <t>Тест (20)</t>
   </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>Отлично</t>
+  </si>
+  <si>
+    <t>Удов</t>
+  </si>
+  <si>
+    <t>отлично</t>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -293,11 +305,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -335,6 +358,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1562,11 +1590,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V11" sqref="V11"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1606,7 @@
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1654,8 +1682,10 @@
       <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1732,8 +1762,10 @@
         <f t="shared" ref="Y2:Y18" si="0">SUM(M2:X2)</f>
         <v>55</v>
       </c>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
     </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1810,8 +1842,10 @@
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
     </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1888,8 +1922,10 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
     </row>
-    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1966,8 +2002,10 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
     </row>
-    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2044,8 +2082,14 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
+      <c r="Z6" s="24">
+        <v>-20</v>
+      </c>
+      <c r="AA6" s="24">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2122,8 +2166,10 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
     </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2200,8 +2246,10 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2278,8 +2326,10 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2356,8 +2406,10 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2434,8 +2486,10 @@
         <f t="shared" si="0"/>
         <v>-110</v>
       </c>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
     </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2512,8 +2566,10 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
     </row>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2590,8 +2646,10 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2668,8 +2726,10 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2746,8 +2806,10 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2824,8 +2886,10 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
     </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -2902,8 +2966,10 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2980,6 +3046,8 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
@@ -3003,10 +3071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3026,7 +3094,7 @@
     <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3061,7 +3129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3083,13 +3151,17 @@
         <v>10</v>
       </c>
       <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="J2" s="18">
+        <v>17</v>
+      </c>
       <c r="K2" s="19">
-        <f>SUM(C2:J2)</f>
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3115,7 +3187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3143,13 +3215,18 @@
       <c r="I4" s="10">
         <v>10</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="10">
+        <v>13</v>
+      </c>
       <c r="K4" s="12">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>96</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -3181,7 +3258,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -3205,13 +3282,19 @@
         <v>10</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10">
+        <v>16</v>
+      </c>
       <c r="K6" s="12">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="23"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -3237,13 +3320,17 @@
       <c r="I7" s="10">
         <v>10</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="10">
+        <v>10</v>
+      </c>
       <c r="K7" s="12">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3265,13 +3352,17 @@
         <v>6</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10">
+        <v>11</v>
+      </c>
       <c r="K8" s="12">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3295,13 +3386,14 @@
         <v>6</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10">
+        <v>15</v>
+      </c>
       <c r="K9" s="12">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3325,13 +3417,17 @@
         <v>10</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10">
+        <v>13</v>
+      </c>
       <c r="K10" s="12">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <v>76</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3351,13 +3447,17 @@
         <v>10</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10">
+        <v>14</v>
+      </c>
       <c r="K11" s="12">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -3391,7 +3491,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -3419,13 +3519,18 @@
       <c r="I13" s="10">
         <v>10</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="10">
+        <v>14</v>
+      </c>
       <c r="K13" s="12">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -3444,16 +3549,23 @@
       <c r="F14" s="10">
         <v>15</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10">
+        <v>15</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10">
+        <v>16</v>
+      </c>
       <c r="K14" s="12">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -3475,7 +3587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -3505,7 +3617,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -3535,7 +3647,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3557,14 +3669,18 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="10">
+        <v>13</v>
+      </c>
       <c r="K18" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:K18">
+  <conditionalFormatting sqref="C2:K18 L6:M6">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>

--- a/Успеваемость_С-ИП-21-2_БД.xlsx
+++ b/Успеваемость_С-ИП-21-2_БД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/Работа/Колледж/GitHub/db-management-and-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8AC6C4-FB4D-224A-B76A-F1C6188959EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483DC80F-ED73-D945-98B0-C28F13FEA984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,6 +45,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Аркадий Шнейдер:
 </t>
@@ -54,6 +55,7 @@
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="Helvetica Neue"/>
+            <family val="2"/>
           </rPr>
           <t>Нет докера</t>
         </r>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -168,10 +170,19 @@
     <t>Отлично</t>
   </si>
   <si>
-    <t>Удов</t>
+    <t>Оценка</t>
   </si>
   <si>
-    <t>отлично</t>
+    <t>Удовлетворительно</t>
+  </si>
+  <si>
+    <t>Общий</t>
+  </si>
+  <si>
+    <t>Баллы</t>
+  </si>
+  <si>
+    <t>Не аттестован</t>
   </si>
 </sst>
 </file>
@@ -192,16 +203,19 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -230,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -307,8 +321,30 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -320,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -358,11 +394,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1594,7 +1651,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
       <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="topRight" activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1682,8 +1739,12 @@
       <c r="Y1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
+      <c r="Z1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -1762,8 +1823,12 @@
         <f t="shared" ref="Y2:Y18" si="0">SUM(M2:X2)</f>
         <v>55</v>
       </c>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
+      <c r="Z2" s="15">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -1842,8 +1907,12 @@
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
+      <c r="Z3" s="15">
+        <v>-30</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>-2</v>
+      </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1922,8 +1991,12 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
+      <c r="Z4" s="15">
+        <v>310</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -2002,8 +2075,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
+      <c r="Z5" s="15">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -2082,10 +2159,10 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6" s="23">
         <v>-20</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="23">
         <v>-1</v>
       </c>
     </row>
@@ -2166,8 +2243,12 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
+      <c r="Z7" s="15">
+        <v>170</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -2246,8 +2327,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
+      <c r="Z8" s="15">
+        <v>140</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -2326,8 +2411,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
+      <c r="Z9" s="15">
+        <v>80</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -2406,8 +2495,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
+      <c r="Z10" s="15">
+        <v>240</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -2486,8 +2579,12 @@
         <f t="shared" si="0"/>
         <v>-110</v>
       </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
+      <c r="Z11" s="15">
+        <v>-50</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>-4</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -2566,8 +2663,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
+      <c r="Z12" s="15">
+        <v>220</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -2646,8 +2747,12 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
+      <c r="Z13" s="15">
+        <v>305</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -2726,8 +2831,12 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
+      <c r="Z14" s="15">
+        <v>-20</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -2806,8 +2915,12 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
+      <c r="Z15" s="15">
+        <v>55</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -2886,8 +2999,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
+      <c r="Z16" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -2966,8 +3083,12 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
+      <c r="Z17" s="15">
+        <v>45</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -3046,8 +3167,12 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
+      <c r="Z18" s="15">
+        <v>355</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
@@ -3074,7 +3199,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3090,7 +3215,7 @@
     <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -3125,8 +3250,11 @@
       <c r="J1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="24" t="s">
         <v>23</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3154,10 +3282,10 @@
       <c r="J2" s="18">
         <v>17</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="25">
         <v>76</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3181,10 +3309,15 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="12">
-        <f t="shared" ref="K3:K18" si="0">SUM(C3:J3)</f>
-        <v>65</v>
+      <c r="J3" s="10">
+        <v>16</v>
+      </c>
+      <c r="K3" s="26">
+        <f t="shared" ref="K3:K17" si="0">SUM(C3:J3)</f>
+        <v>81</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3218,11 +3351,11 @@
       <c r="J4" s="10">
         <v>13</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="26">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3252,10 +3385,14 @@
         <v>10</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="12">
-        <f t="shared" si="0"/>
-        <v>90</v>
+      <c r="J5" s="10">
+        <v>12</v>
+      </c>
+      <c r="K5" s="26">
+        <v>100</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3285,14 +3422,14 @@
       <c r="J6" s="10">
         <v>16</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="26">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="23"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
@@ -3323,10 +3460,10 @@
       <c r="J7" s="10">
         <v>10</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="26">
         <v>91</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3355,11 +3492,11 @@
       <c r="J8" s="10">
         <v>11</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="26">
         <v>61</v>
       </c>
-      <c r="L8" s="25" t="s">
-        <v>34</v>
+      <c r="L8" s="32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3389,8 +3526,11 @@
       <c r="J9" s="10">
         <v>15</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="26">
         <v>91</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3420,10 +3560,10 @@
       <c r="J10" s="10">
         <v>13</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="26">
         <v>76</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3450,11 +3590,11 @@
       <c r="J11" s="10">
         <v>14</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="26">
         <v>61</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>34</v>
+      <c r="L11" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3485,10 +3625,15 @@
       <c r="I12" s="10">
         <v>10</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="12">
+      <c r="J12" s="10">
+        <v>14</v>
+      </c>
+      <c r="K12" s="26">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>99</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3522,12 +3667,12 @@
       <c r="J13" s="10">
         <v>14</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="26">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>35</v>
+      <c r="L13" s="30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3557,11 +3702,11 @@
       <c r="J14" s="10">
         <v>16</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="26">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3581,10 +3726,15 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="12">
+      <c r="J15" s="10">
+        <v>14</v>
+      </c>
+      <c r="K15" s="26">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3612,9 +3762,11 @@
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="12">
-        <f t="shared" si="0"/>
-        <v>71</v>
+      <c r="K16" s="26">
+        <v>76</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3642,9 +3794,11 @@
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="K17" s="26">
+        <v>61</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3672,10 +3826,10 @@
       <c r="J18" s="10">
         <v>13</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="26">
         <v>76</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="31" t="s">
         <v>32</v>
       </c>
     </row>
